--- a/public/export/product-import-sample-file-service-provider.xlsx
+++ b/public/export/product-import-sample-file-service-provider.xlsx
@@ -5,73 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74602E3E-968E-48B8-B5F8-647332152E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF5A708-5A7A-42FC-A8CD-B0A22269C875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE495C39-57E1-42E3-B52A-6F62DE5635B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>is_on_offer</t>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>gtin_number</t>
-  </si>
-  <si>
-    <t>discount_type</t>
-  </si>
-  <si>
-    <t>discount_value</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>product_description</t>
-  </si>
-  <si>
-    <t>delivery_type</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>product</t>
   </si>
@@ -85,15 +39,6 @@
     <t>sku154318554</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>fixed_amount</t>
-  </si>
-  <si>
     <t>tag1, tag2</t>
   </si>
   <si>
@@ -109,9 +54,6 @@
     <t>sku154310124</t>
   </si>
   <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>Apple 2.0 Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy</t>
   </si>
   <si>
@@ -121,15 +63,693 @@
     <t>pickup_from_location</t>
   </si>
   <si>
-    <t>actual_price</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Type (no need to change)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the type of the item i.e. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Brand Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for brand name of the product.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Product Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the name of the product.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. GTIN Number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for GTIN of the product.(between 10 to 13 characters)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. SKU
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for SKU (a random set of string between 7 to 13 characters).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Actual Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the actual price for the product.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. Discount in Percentage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compulsory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field with values</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 to 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>having only numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for applying discount to the price of product.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8. Quantity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compulsory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">field for quantity of the product having numeric values.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for description of the product.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10. Delivery Type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compulsory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">field for delivery type of the product. It have only one value out of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">deliver_to_location or pickup_from_location.
+11. Tags
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for product search tags.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 Images
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for product image url.</t>
+    </r>
+  </si>
+  <si>
+    <t>type_required</t>
+  </si>
+  <si>
+    <t>brand_name_required</t>
+  </si>
+  <si>
+    <t>product_name_required</t>
+  </si>
+  <si>
+    <t>gtin_number_required</t>
+  </si>
+  <si>
+    <t>sku_required</t>
+  </si>
+  <si>
+    <t>original_price_required</t>
+  </si>
+  <si>
+    <t>quantity_required</t>
+  </si>
+  <si>
+    <t>product_description_required</t>
+  </si>
+  <si>
+    <t>delivery_type_required</t>
+  </si>
+  <si>
+    <t>tags_required</t>
+  </si>
+  <si>
+    <t>images_required</t>
+  </si>
+  <si>
+    <t>Instructions_for_help</t>
+  </si>
+  <si>
+    <t>discount_in_percentage_not_required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,8 +777,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,170 +1095,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08470AB-C17C-45CE-BA84-CEA747715504}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="111.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="111.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="176.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="348" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>4845481451</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1500</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>4845481400</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1800</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="H3">
         <v>35</v>
       </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{E1BC0B34-2A86-41B9-AAAF-A0DEFE22D17F}">
-      <formula1>"Yes,No"</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"deliver_to_location,pickup_from_location"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{1D38C07A-DA75-4D62-9C59-14390CEEB4E8}">
-      <formula1>"fixed_amount, percentage"</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{A901C37D-FDAF-4ABD-BF62-33737FE7AE4D}">
+      <formula1>1</formula1>
+      <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{BB274958-8C16-4C20-9DA1-738E90234607}">
-      <formula1>"deliver_to_location,pickup_from_location"</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{DFE064A4-0713-4010-A6EB-83983D9870A0}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{6E73A52D-67B0-4190-B4D6-A320154A9E1E}">
+      <formula1>1</formula1>
+      <formula2>100000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/export/product-import-sample-file-service-provider.xlsx
+++ b/public/export/product-import-sample-file-service-provider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF5A708-5A7A-42FC-A8CD-B0A22269C875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5ACC5-4FBC-4117-9D9A-ADB9F3F604D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"deliver_to_location,pickup_from_location"</formula1>
     </dataValidation>
@@ -1246,7 +1246,7 @@
       <formula1>1</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{DFE064A4-0713-4010-A6EB-83983D9870A0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576" xr:uid="{DFE064A4-0713-4010-A6EB-83983D9870A0}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -1254,6 +1254,10 @@
       <formula1>1</formula1>
       <formula2>100000</formula2>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{56A82621-321C-457A-BF94-B9301023204C}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/export/product-import-sample-file-service-provider.xlsx
+++ b/public/export/product-import-sample-file-service-provider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5ACC5-4FBC-4117-9D9A-ADB9F3F604D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B04CD0D-44C5-428D-99DF-CA420A101123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"deliver_to_location,pickup_from_location"</formula1>
     </dataValidation>
@@ -1258,6 +1258,9 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{72BF3F74-EF26-44F6-869A-B6FAD0981165}">
+      <formula1>"product"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/export/product-import-sample-file-service-provider.xlsx
+++ b/public/export/product-import-sample-file-service-provider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B04CD0D-44C5-428D-99DF-CA420A101123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34192C-9E3D-4E22-AD90-B2D4D005832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"deliver_to_location,pickup_from_location"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{A901C37D-FDAF-4ABD-BF62-33737FE7AE4D}">
